--- a/Filtered_By_Region/Region IV-A/Region IV-A_QRF.xlsx
+++ b/Filtered_By_Region/Region IV-A/Region IV-A_QRF.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT105"/>
+  <dimension ref="A1:AU105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,6 +669,11 @@
           <t>Unnamed: 45</t>
         </is>
       </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -718,7 +724,6 @@
       <c r="L2" t="n">
         <v>1</v>
       </c>
-      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -727,16 +732,6 @@
       <c r="O2" t="n">
         <v>1</v>
       </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -778,16 +773,11 @@
       <c r="AL2" t="n">
         <v>0</v>
       </c>
-      <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -848,7 +838,6 @@
       <c r="L3" t="n">
         <v>1</v>
       </c>
-      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -857,17 +846,6 @@
       <c r="O3" t="n">
         <v>1</v>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
@@ -904,16 +882,11 @@
       <c r="AL3" t="n">
         <v>0</v>
       </c>
-      <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -974,7 +947,6 @@
       <c r="L4" t="n">
         <v>1</v>
       </c>
-      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -983,16 +955,6 @@
       <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -1034,16 +996,11 @@
       <c r="AL4" t="n">
         <v>0</v>
       </c>
-      <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1104,7 +1061,6 @@
       <c r="L5" t="n">
         <v>1</v>
       </c>
-      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1113,17 +1069,6 @@
       <c r="O5" t="n">
         <v>1</v>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
@@ -1160,16 +1105,11 @@
       <c r="AL5" t="n">
         <v>0</v>
       </c>
-      <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1230,7 +1170,6 @@
       <c r="L6" t="n">
         <v>1</v>
       </c>
-      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1239,17 +1178,6 @@
       <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
@@ -1286,16 +1214,11 @@
       <c r="AL6" t="n">
         <v>0</v>
       </c>
-      <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1356,7 +1279,6 @@
       <c r="L7" t="n">
         <v>1</v>
       </c>
-      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1365,16 +1287,6 @@
       <c r="O7" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -1416,16 +1328,11 @@
       <c r="AL7" t="n">
         <v>0</v>
       </c>
-      <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1486,7 +1393,6 @@
       <c r="L8" t="n">
         <v>1</v>
       </c>
-      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1495,16 +1401,6 @@
       <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -1546,16 +1442,11 @@
       <c r="AL8" t="n">
         <v>0</v>
       </c>
-      <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1616,7 +1507,6 @@
       <c r="L9" t="n">
         <v>1</v>
       </c>
-      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1625,16 +1515,6 @@
       <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -1676,16 +1556,11 @@
       <c r="AL9" t="n">
         <v>0</v>
       </c>
-      <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1746,7 +1621,6 @@
       <c r="L10" t="n">
         <v>1</v>
       </c>
-      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1755,16 +1629,6 @@
       <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -1806,16 +1670,11 @@
       <c r="AL10" t="n">
         <v>0</v>
       </c>
-      <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -1876,7 +1735,6 @@
       <c r="L11" t="n">
         <v>1</v>
       </c>
-      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1885,16 +1743,6 @@
       <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -1936,16 +1784,11 @@
       <c r="AL11" t="n">
         <v>0</v>
       </c>
-      <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2006,7 +1849,6 @@
       <c r="L12" t="n">
         <v>1</v>
       </c>
-      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2015,16 +1857,6 @@
       <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -2066,16 +1898,11 @@
       <c r="AL12" t="n">
         <v>0</v>
       </c>
-      <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2136,7 +1963,6 @@
       <c r="L13" t="n">
         <v>1</v>
       </c>
-      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2145,16 +1971,6 @@
       <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -2196,16 +2012,11 @@
       <c r="AL13" t="n">
         <v>0</v>
       </c>
-      <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2266,7 +2077,6 @@
       <c r="L14" t="n">
         <v>1</v>
       </c>
-      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2275,16 +2085,6 @@
       <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -2326,16 +2126,11 @@
       <c r="AL14" t="n">
         <v>0</v>
       </c>
-      <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2396,7 +2191,6 @@
       <c r="L15" t="n">
         <v>1</v>
       </c>
-      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2405,16 +2199,6 @@
       <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -2456,16 +2240,11 @@
       <c r="AL15" t="n">
         <v>0</v>
       </c>
-      <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2526,7 +2305,6 @@
       <c r="L16" t="n">
         <v>1</v>
       </c>
-      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2535,16 +2313,6 @@
       <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -2586,16 +2354,11 @@
       <c r="AL16" t="n">
         <v>0</v>
       </c>
-      <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2656,7 +2419,6 @@
       <c r="L17" t="n">
         <v>1</v>
       </c>
-      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2665,16 +2427,6 @@
       <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -2716,16 +2468,11 @@
       <c r="AL17" t="n">
         <v>0</v>
       </c>
-      <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2786,7 +2533,6 @@
       <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2795,16 +2541,6 @@
       <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -2846,16 +2582,11 @@
       <c r="AL18" t="n">
         <v>0</v>
       </c>
-      <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -2916,7 +2647,6 @@
       <c r="L19" t="n">
         <v>1</v>
       </c>
-      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2925,16 +2655,6 @@
       <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -2976,16 +2696,11 @@
       <c r="AL19" t="n">
         <v>0</v>
       </c>
-      <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3046,7 +2761,6 @@
       <c r="L20" t="n">
         <v>1</v>
       </c>
-      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3055,16 +2769,6 @@
       <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -3106,16 +2810,11 @@
       <c r="AL20" t="n">
         <v>0</v>
       </c>
-      <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3176,7 +2875,6 @@
       <c r="L21" t="n">
         <v>1</v>
       </c>
-      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3185,16 +2883,6 @@
       <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -3236,16 +2924,11 @@
       <c r="AL21" t="n">
         <v>0</v>
       </c>
-      <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO21" t="inlineStr"/>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3306,7 +2989,6 @@
       <c r="L22" t="n">
         <v>1</v>
       </c>
-      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3315,16 +2997,6 @@
       <c r="O22" t="n">
         <v>1</v>
       </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -3366,16 +3038,11 @@
       <c r="AL22" t="n">
         <v>0</v>
       </c>
-      <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3436,7 +3103,6 @@
       <c r="L23" t="n">
         <v>1</v>
       </c>
-      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3445,16 +3111,6 @@
       <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -3496,16 +3152,11 @@
       <c r="AL23" t="n">
         <v>0</v>
       </c>
-      <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO23" t="inlineStr"/>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="inlineStr"/>
-      <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3566,7 +3217,6 @@
       <c r="L24" t="n">
         <v>1</v>
       </c>
-      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3575,16 +3225,6 @@
       <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -3626,16 +3266,11 @@
       <c r="AL24" t="n">
         <v>0</v>
       </c>
-      <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO24" t="inlineStr"/>
-      <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="inlineStr"/>
-      <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3696,7 +3331,6 @@
       <c r="L25" t="n">
         <v>1</v>
       </c>
-      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3705,16 +3339,6 @@
       <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -3756,16 +3380,11 @@
       <c r="AL25" t="n">
         <v>0</v>
       </c>
-      <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO25" t="inlineStr"/>
-      <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3826,7 +3445,6 @@
       <c r="L26" t="n">
         <v>1</v>
       </c>
-      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3835,16 +3453,6 @@
       <c r="O26" t="n">
         <v>1</v>
       </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -3886,16 +3494,11 @@
       <c r="AL26" t="n">
         <v>0</v>
       </c>
-      <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO26" t="inlineStr"/>
-      <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="inlineStr"/>
-      <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -3956,7 +3559,6 @@
       <c r="L27" t="n">
         <v>1</v>
       </c>
-      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3965,16 +3567,6 @@
       <c r="O27" t="n">
         <v>1</v>
       </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -4016,16 +3608,11 @@
       <c r="AL27" t="n">
         <v>0</v>
       </c>
-      <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO27" t="inlineStr"/>
-      <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4086,7 +3673,6 @@
       <c r="L28" t="n">
         <v>1</v>
       </c>
-      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4095,16 +3681,6 @@
       <c r="O28" t="n">
         <v>1</v>
       </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -4146,16 +3722,11 @@
       <c r="AL28" t="n">
         <v>0</v>
       </c>
-      <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO28" t="inlineStr"/>
-      <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4216,7 +3787,6 @@
       <c r="L29" t="n">
         <v>1</v>
       </c>
-      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4225,16 +3795,6 @@
       <c r="O29" t="n">
         <v>1</v>
       </c>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -4276,16 +3836,11 @@
       <c r="AL29" t="n">
         <v>0</v>
       </c>
-      <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO29" t="inlineStr"/>
-      <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4346,7 +3901,6 @@
       <c r="L30" t="n">
         <v>1</v>
       </c>
-      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4355,17 +3909,6 @@
       <c r="O30" t="n">
         <v>1</v>
       </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="n">
         <v>0</v>
       </c>
@@ -4402,16 +3945,11 @@
       <c r="AL30" t="n">
         <v>0</v>
       </c>
-      <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO30" t="inlineStr"/>
-      <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4472,7 +4010,6 @@
       <c r="L31" t="n">
         <v>1</v>
       </c>
-      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4481,17 +4018,6 @@
       <c r="O31" t="n">
         <v>1</v>
       </c>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="n">
         <v>0</v>
       </c>
@@ -4528,16 +4054,11 @@
       <c r="AL31" t="n">
         <v>0</v>
       </c>
-      <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO31" t="inlineStr"/>
-      <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4598,7 +4119,6 @@
       <c r="L32" t="n">
         <v>1</v>
       </c>
-      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4607,17 +4127,6 @@
       <c r="O32" t="n">
         <v>1</v>
       </c>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="n">
         <v>0</v>
       </c>
@@ -4654,16 +4163,11 @@
       <c r="AL32" t="n">
         <v>0</v>
       </c>
-      <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO32" t="inlineStr"/>
-      <c r="AP32" t="inlineStr"/>
-      <c r="AQ32" t="inlineStr"/>
-      <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4724,7 +4228,6 @@
       <c r="L33" t="n">
         <v>1</v>
       </c>
-      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4733,17 +4236,6 @@
       <c r="O33" t="n">
         <v>1</v>
       </c>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="n">
         <v>0</v>
       </c>
@@ -4780,16 +4272,11 @@
       <c r="AL33" t="n">
         <v>0</v>
       </c>
-      <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO33" t="inlineStr"/>
-      <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4850,7 +4337,6 @@
       <c r="L34" t="n">
         <v>1</v>
       </c>
-      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4859,17 +4345,6 @@
       <c r="O34" t="n">
         <v>1</v>
       </c>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="n">
         <v>0</v>
       </c>
@@ -4906,16 +4381,11 @@
       <c r="AL34" t="n">
         <v>0</v>
       </c>
-      <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO34" t="inlineStr"/>
-      <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -4976,7 +4446,6 @@
       <c r="L35" t="n">
         <v>1</v>
       </c>
-      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4985,17 +4454,6 @@
       <c r="O35" t="n">
         <v>1</v>
       </c>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="n">
         <v>0</v>
       </c>
@@ -5032,16 +4490,11 @@
       <c r="AL35" t="n">
         <v>0</v>
       </c>
-      <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO35" t="inlineStr"/>
-      <c r="AP35" t="inlineStr"/>
-      <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5102,7 +4555,6 @@
       <c r="L36" t="n">
         <v>1</v>
       </c>
-      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5111,17 +4563,6 @@
       <c r="O36" t="n">
         <v>1</v>
       </c>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="n">
         <v>0</v>
       </c>
@@ -5158,16 +4599,11 @@
       <c r="AL36" t="n">
         <v>0</v>
       </c>
-      <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO36" t="inlineStr"/>
-      <c r="AP36" t="inlineStr"/>
-      <c r="AQ36" t="inlineStr"/>
-      <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5228,7 +4664,6 @@
       <c r="L37" t="n">
         <v>1</v>
       </c>
-      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5237,17 +4672,6 @@
       <c r="O37" t="n">
         <v>1</v>
       </c>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="n">
         <v>0</v>
       </c>
@@ -5284,16 +4708,11 @@
       <c r="AL37" t="n">
         <v>0</v>
       </c>
-      <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO37" t="inlineStr"/>
-      <c r="AP37" t="inlineStr"/>
-      <c r="AQ37" t="inlineStr"/>
-      <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5354,7 +4773,6 @@
       <c r="L38" t="n">
         <v>1</v>
       </c>
-      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5363,17 +4781,6 @@
       <c r="O38" t="n">
         <v>1</v>
       </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="n">
         <v>0</v>
       </c>
@@ -5410,16 +4817,11 @@
       <c r="AL38" t="n">
         <v>0</v>
       </c>
-      <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO38" t="inlineStr"/>
-      <c r="AP38" t="inlineStr"/>
-      <c r="AQ38" t="inlineStr"/>
-      <c r="AR38" t="inlineStr"/>
       <c r="AS38" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5480,7 +4882,6 @@
       <c r="L39" t="n">
         <v>1</v>
       </c>
-      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5489,17 +4890,6 @@
       <c r="O39" t="n">
         <v>1</v>
       </c>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="n">
         <v>0</v>
       </c>
@@ -5536,16 +4926,11 @@
       <c r="AL39" t="n">
         <v>0</v>
       </c>
-      <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO39" t="inlineStr"/>
-      <c r="AP39" t="inlineStr"/>
-      <c r="AQ39" t="inlineStr"/>
-      <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5606,7 +4991,6 @@
       <c r="L40" t="n">
         <v>1</v>
       </c>
-      <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5615,17 +4999,6 @@
       <c r="O40" t="n">
         <v>1</v>
       </c>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="n">
         <v>0</v>
       </c>
@@ -5662,16 +5035,11 @@
       <c r="AL40" t="n">
         <v>0</v>
       </c>
-      <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO40" t="inlineStr"/>
-      <c r="AP40" t="inlineStr"/>
-      <c r="AQ40" t="inlineStr"/>
-      <c r="AR40" t="inlineStr"/>
       <c r="AS40" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5732,7 +5100,6 @@
       <c r="L41" t="n">
         <v>1</v>
       </c>
-      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5741,17 +5108,6 @@
       <c r="O41" t="n">
         <v>1</v>
       </c>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="n">
         <v>0</v>
       </c>
@@ -5788,16 +5144,11 @@
       <c r="AL41" t="n">
         <v>0</v>
       </c>
-      <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO41" t="inlineStr"/>
-      <c r="AP41" t="inlineStr"/>
-      <c r="AQ41" t="inlineStr"/>
-      <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5858,7 +5209,6 @@
       <c r="L42" t="n">
         <v>1</v>
       </c>
-      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5867,17 +5217,6 @@
       <c r="O42" t="n">
         <v>1</v>
       </c>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="n">
         <v>0</v>
       </c>
@@ -5914,16 +5253,11 @@
       <c r="AL42" t="n">
         <v>0</v>
       </c>
-      <c r="AM42" t="inlineStr"/>
       <c r="AN42" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO42" t="inlineStr"/>
-      <c r="AP42" t="inlineStr"/>
-      <c r="AQ42" t="inlineStr"/>
-      <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -5984,7 +5318,6 @@
       <c r="L43" t="n">
         <v>1</v>
       </c>
-      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5993,17 +5326,6 @@
       <c r="O43" t="n">
         <v>1</v>
       </c>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="n">
         <v>0</v>
       </c>
@@ -6040,16 +5362,11 @@
       <c r="AL43" t="n">
         <v>0</v>
       </c>
-      <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO43" t="inlineStr"/>
-      <c r="AP43" t="inlineStr"/>
-      <c r="AQ43" t="inlineStr"/>
-      <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -6110,7 +5427,6 @@
       <c r="L44" t="n">
         <v>1</v>
       </c>
-      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6119,17 +5435,6 @@
       <c r="O44" t="n">
         <v>1</v>
       </c>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="n">
         <v>0</v>
       </c>
@@ -6166,16 +5471,11 @@
       <c r="AL44" t="n">
         <v>0</v>
       </c>
-      <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO44" t="inlineStr"/>
-      <c r="AP44" t="inlineStr"/>
-      <c r="AQ44" t="inlineStr"/>
-      <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -6236,7 +5536,6 @@
       <c r="L45" t="n">
         <v>1</v>
       </c>
-      <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6245,17 +5544,6 @@
       <c r="O45" t="n">
         <v>1</v>
       </c>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="n">
         <v>0</v>
       </c>
@@ -6292,16 +5580,11 @@
       <c r="AL45" t="n">
         <v>0</v>
       </c>
-      <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO45" t="inlineStr"/>
-      <c r="AP45" t="inlineStr"/>
-      <c r="AQ45" t="inlineStr"/>
-      <c r="AR45" t="inlineStr"/>
       <c r="AS45" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -6362,7 +5645,6 @@
       <c r="L46" t="n">
         <v>1</v>
       </c>
-      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6371,17 +5653,6 @@
       <c r="O46" t="n">
         <v>1</v>
       </c>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="n">
         <v>0</v>
       </c>
@@ -6418,16 +5689,11 @@
       <c r="AL46" t="n">
         <v>0</v>
       </c>
-      <c r="AM46" t="inlineStr"/>
       <c r="AN46" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO46" t="inlineStr"/>
-      <c r="AP46" t="inlineStr"/>
-      <c r="AQ46" t="inlineStr"/>
-      <c r="AR46" t="inlineStr"/>
       <c r="AS46" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -6488,7 +5754,6 @@
       <c r="L47" t="n">
         <v>1</v>
       </c>
-      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6497,17 +5762,6 @@
       <c r="O47" t="n">
         <v>1</v>
       </c>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="n">
         <v>0</v>
       </c>
@@ -6544,16 +5798,11 @@
       <c r="AL47" t="n">
         <v>0</v>
       </c>
-      <c r="AM47" t="inlineStr"/>
       <c r="AN47" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO47" t="inlineStr"/>
-      <c r="AP47" t="inlineStr"/>
-      <c r="AQ47" t="inlineStr"/>
-      <c r="AR47" t="inlineStr"/>
       <c r="AS47" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -6614,7 +5863,6 @@
       <c r="L48" t="n">
         <v>1</v>
       </c>
-      <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6623,17 +5871,6 @@
       <c r="O48" t="n">
         <v>1</v>
       </c>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="n">
         <v>0</v>
       </c>
@@ -6670,16 +5907,11 @@
       <c r="AL48" t="n">
         <v>0</v>
       </c>
-      <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO48" t="inlineStr"/>
-      <c r="AP48" t="inlineStr"/>
-      <c r="AQ48" t="inlineStr"/>
-      <c r="AR48" t="inlineStr"/>
       <c r="AS48" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -6740,7 +5972,6 @@
       <c r="L49" t="n">
         <v>1</v>
       </c>
-      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6749,17 +5980,6 @@
       <c r="O49" t="n">
         <v>1</v>
       </c>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="n">
         <v>0</v>
       </c>
@@ -6796,16 +6016,11 @@
       <c r="AL49" t="n">
         <v>0</v>
       </c>
-      <c r="AM49" t="inlineStr"/>
       <c r="AN49" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO49" t="inlineStr"/>
-      <c r="AP49" t="inlineStr"/>
-      <c r="AQ49" t="inlineStr"/>
-      <c r="AR49" t="inlineStr"/>
       <c r="AS49" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -6866,7 +6081,6 @@
       <c r="L50" t="n">
         <v>1</v>
       </c>
-      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6875,17 +6089,6 @@
       <c r="O50" t="n">
         <v>1</v>
       </c>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="n">
         <v>0</v>
       </c>
@@ -6922,16 +6125,11 @@
       <c r="AL50" t="n">
         <v>0</v>
       </c>
-      <c r="AM50" t="inlineStr"/>
       <c r="AN50" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO50" t="inlineStr"/>
-      <c r="AP50" t="inlineStr"/>
-      <c r="AQ50" t="inlineStr"/>
-      <c r="AR50" t="inlineStr"/>
       <c r="AS50" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -6992,7 +6190,6 @@
       <c r="L51" t="n">
         <v>1</v>
       </c>
-      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7001,17 +6198,6 @@
       <c r="O51" t="n">
         <v>1</v>
       </c>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="n">
         <v>0</v>
       </c>
@@ -7048,16 +6234,11 @@
       <c r="AL51" t="n">
         <v>0</v>
       </c>
-      <c r="AM51" t="inlineStr"/>
       <c r="AN51" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO51" t="inlineStr"/>
-      <c r="AP51" t="inlineStr"/>
-      <c r="AQ51" t="inlineStr"/>
-      <c r="AR51" t="inlineStr"/>
       <c r="AS51" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -7118,7 +6299,6 @@
       <c r="L52" t="n">
         <v>1</v>
       </c>
-      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7127,16 +6307,6 @@
       <c r="O52" t="n">
         <v>1</v>
       </c>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -7178,16 +6348,11 @@
       <c r="AL52" t="n">
         <v>0</v>
       </c>
-      <c r="AM52" t="inlineStr"/>
       <c r="AN52" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO52" t="inlineStr"/>
-      <c r="AP52" t="inlineStr"/>
-      <c r="AQ52" t="inlineStr"/>
-      <c r="AR52" t="inlineStr"/>
       <c r="AS52" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -7248,7 +6413,6 @@
       <c r="L53" t="n">
         <v>1</v>
       </c>
-      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7257,17 +6421,6 @@
       <c r="O53" t="n">
         <v>1</v>
       </c>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="n">
         <v>0</v>
       </c>
@@ -7304,16 +6457,11 @@
       <c r="AL53" t="n">
         <v>0</v>
       </c>
-      <c r="AM53" t="inlineStr"/>
       <c r="AN53" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO53" t="inlineStr"/>
-      <c r="AP53" t="inlineStr"/>
-      <c r="AQ53" t="inlineStr"/>
-      <c r="AR53" t="inlineStr"/>
       <c r="AS53" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -7374,7 +6522,6 @@
       <c r="L54" t="n">
         <v>1</v>
       </c>
-      <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7383,17 +6530,6 @@
       <c r="O54" t="n">
         <v>1</v>
       </c>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="n">
         <v>0</v>
       </c>
@@ -7430,16 +6566,11 @@
       <c r="AL54" t="n">
         <v>0</v>
       </c>
-      <c r="AM54" t="inlineStr"/>
       <c r="AN54" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO54" t="inlineStr"/>
-      <c r="AP54" t="inlineStr"/>
-      <c r="AQ54" t="inlineStr"/>
-      <c r="AR54" t="inlineStr"/>
       <c r="AS54" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -7500,7 +6631,6 @@
       <c r="L55" t="n">
         <v>1</v>
       </c>
-      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7509,16 +6639,6 @@
       <c r="O55" t="n">
         <v>1</v>
       </c>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -7560,16 +6680,11 @@
       <c r="AL55" t="n">
         <v>0</v>
       </c>
-      <c r="AM55" t="inlineStr"/>
       <c r="AN55" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO55" t="inlineStr"/>
-      <c r="AP55" t="inlineStr"/>
-      <c r="AQ55" t="inlineStr"/>
-      <c r="AR55" t="inlineStr"/>
       <c r="AS55" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -7630,7 +6745,6 @@
       <c r="L56" t="n">
         <v>1</v>
       </c>
-      <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7639,17 +6753,6 @@
       <c r="O56" t="n">
         <v>1</v>
       </c>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="n">
         <v>0</v>
       </c>
@@ -7686,16 +6789,11 @@
       <c r="AL56" t="n">
         <v>0</v>
       </c>
-      <c r="AM56" t="inlineStr"/>
       <c r="AN56" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO56" t="inlineStr"/>
-      <c r="AP56" t="inlineStr"/>
-      <c r="AQ56" t="inlineStr"/>
-      <c r="AR56" t="inlineStr"/>
       <c r="AS56" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -7756,7 +6854,6 @@
       <c r="L57" t="n">
         <v>1</v>
       </c>
-      <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7765,16 +6862,6 @@
       <c r="O57" t="n">
         <v>1</v>
       </c>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -7816,16 +6903,11 @@
       <c r="AL57" t="n">
         <v>0</v>
       </c>
-      <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO57" t="inlineStr"/>
-      <c r="AP57" t="inlineStr"/>
-      <c r="AQ57" t="inlineStr"/>
-      <c r="AR57" t="inlineStr"/>
       <c r="AS57" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -7886,7 +6968,6 @@
       <c r="L58" t="n">
         <v>1</v>
       </c>
-      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7895,16 +6976,6 @@
       <c r="O58" t="n">
         <v>1</v>
       </c>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -7946,16 +7017,11 @@
       <c r="AL58" t="n">
         <v>0</v>
       </c>
-      <c r="AM58" t="inlineStr"/>
       <c r="AN58" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO58" t="inlineStr"/>
-      <c r="AP58" t="inlineStr"/>
-      <c r="AQ58" t="inlineStr"/>
-      <c r="AR58" t="inlineStr"/>
       <c r="AS58" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -8016,7 +7082,6 @@
       <c r="L59" t="n">
         <v>1</v>
       </c>
-      <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8025,17 +7090,6 @@
       <c r="O59" t="n">
         <v>1</v>
       </c>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="n">
         <v>0</v>
       </c>
@@ -8072,16 +7126,11 @@
       <c r="AL59" t="n">
         <v>0</v>
       </c>
-      <c r="AM59" t="inlineStr"/>
       <c r="AN59" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO59" t="inlineStr"/>
-      <c r="AP59" t="inlineStr"/>
-      <c r="AQ59" t="inlineStr"/>
-      <c r="AR59" t="inlineStr"/>
       <c r="AS59" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -8142,7 +7191,6 @@
       <c r="L60" t="n">
         <v>1</v>
       </c>
-      <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8151,16 +7199,6 @@
       <c r="O60" t="n">
         <v>1</v>
       </c>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -8202,16 +7240,11 @@
       <c r="AL60" t="n">
         <v>0</v>
       </c>
-      <c r="AM60" t="inlineStr"/>
       <c r="AN60" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO60" t="inlineStr"/>
-      <c r="AP60" t="inlineStr"/>
-      <c r="AQ60" t="inlineStr"/>
-      <c r="AR60" t="inlineStr"/>
       <c r="AS60" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -8272,7 +7305,6 @@
       <c r="L61" t="n">
         <v>1</v>
       </c>
-      <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8281,17 +7313,6 @@
       <c r="O61" t="n">
         <v>1</v>
       </c>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="n">
         <v>0</v>
       </c>
@@ -8328,16 +7349,11 @@
       <c r="AL61" t="n">
         <v>0</v>
       </c>
-      <c r="AM61" t="inlineStr"/>
       <c r="AN61" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO61" t="inlineStr"/>
-      <c r="AP61" t="inlineStr"/>
-      <c r="AQ61" t="inlineStr"/>
-      <c r="AR61" t="inlineStr"/>
       <c r="AS61" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -8398,7 +7414,6 @@
       <c r="L62" t="n">
         <v>1</v>
       </c>
-      <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8407,16 +7422,6 @@
       <c r="O62" t="n">
         <v>1</v>
       </c>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -8458,16 +7463,11 @@
       <c r="AL62" t="n">
         <v>0</v>
       </c>
-      <c r="AM62" t="inlineStr"/>
       <c r="AN62" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO62" t="inlineStr"/>
-      <c r="AP62" t="inlineStr"/>
-      <c r="AQ62" t="inlineStr"/>
-      <c r="AR62" t="inlineStr"/>
       <c r="AS62" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -8528,7 +7528,6 @@
       <c r="L63" t="n">
         <v>1</v>
       </c>
-      <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8537,17 +7536,6 @@
       <c r="O63" t="n">
         <v>1</v>
       </c>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="n">
         <v>0</v>
       </c>
@@ -8584,16 +7572,11 @@
       <c r="AL63" t="n">
         <v>0</v>
       </c>
-      <c r="AM63" t="inlineStr"/>
       <c r="AN63" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO63" t="inlineStr"/>
-      <c r="AP63" t="inlineStr"/>
-      <c r="AQ63" t="inlineStr"/>
-      <c r="AR63" t="inlineStr"/>
       <c r="AS63" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -8654,7 +7637,6 @@
       <c r="L64" t="n">
         <v>1</v>
       </c>
-      <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8663,17 +7645,6 @@
       <c r="O64" t="n">
         <v>1</v>
       </c>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="n">
         <v>0</v>
       </c>
@@ -8710,16 +7681,11 @@
       <c r="AL64" t="n">
         <v>0</v>
       </c>
-      <c r="AM64" t="inlineStr"/>
       <c r="AN64" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO64" t="inlineStr"/>
-      <c r="AP64" t="inlineStr"/>
-      <c r="AQ64" t="inlineStr"/>
-      <c r="AR64" t="inlineStr"/>
       <c r="AS64" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -8780,7 +7746,6 @@
       <c r="L65" t="n">
         <v>1</v>
       </c>
-      <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8789,17 +7754,6 @@
       <c r="O65" t="n">
         <v>1</v>
       </c>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="n">
         <v>0</v>
       </c>
@@ -8836,16 +7790,11 @@
       <c r="AL65" t="n">
         <v>0</v>
       </c>
-      <c r="AM65" t="inlineStr"/>
       <c r="AN65" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO65" t="inlineStr"/>
-      <c r="AP65" t="inlineStr"/>
-      <c r="AQ65" t="inlineStr"/>
-      <c r="AR65" t="inlineStr"/>
       <c r="AS65" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -8906,7 +7855,6 @@
       <c r="L66" t="n">
         <v>1</v>
       </c>
-      <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8915,17 +7863,6 @@
       <c r="O66" t="n">
         <v>1</v>
       </c>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
       <c r="AA66" t="n">
         <v>0</v>
       </c>
@@ -8962,16 +7899,11 @@
       <c r="AL66" t="n">
         <v>0</v>
       </c>
-      <c r="AM66" t="inlineStr"/>
       <c r="AN66" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO66" t="inlineStr"/>
-      <c r="AP66" t="inlineStr"/>
-      <c r="AQ66" t="inlineStr"/>
-      <c r="AR66" t="inlineStr"/>
       <c r="AS66" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -9032,7 +7964,6 @@
       <c r="L67" t="n">
         <v>1</v>
       </c>
-      <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9041,16 +7972,6 @@
       <c r="O67" t="n">
         <v>1</v>
       </c>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
           <t>Mobilization/ No Suspension</t>
@@ -9092,16 +8013,11 @@
       <c r="AL67" t="n">
         <v>0</v>
       </c>
-      <c r="AM67" t="inlineStr"/>
       <c r="AN67" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO67" t="inlineStr"/>
-      <c r="AP67" t="inlineStr"/>
-      <c r="AQ67" t="inlineStr"/>
-      <c r="AR67" t="inlineStr"/>
       <c r="AS67" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -9162,7 +8078,6 @@
       <c r="L68" t="n">
         <v>1</v>
       </c>
-      <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9171,17 +8086,6 @@
       <c r="O68" t="n">
         <v>1</v>
       </c>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="n">
         <v>0</v>
       </c>
@@ -9218,16 +8122,11 @@
       <c r="AL68" t="n">
         <v>0</v>
       </c>
-      <c r="AM68" t="inlineStr"/>
       <c r="AN68" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO68" t="inlineStr"/>
-      <c r="AP68" t="inlineStr"/>
-      <c r="AQ68" t="inlineStr"/>
-      <c r="AR68" t="inlineStr"/>
       <c r="AS68" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -9288,7 +8187,6 @@
       <c r="L69" t="n">
         <v>1</v>
       </c>
-      <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9297,17 +8195,6 @@
       <c r="O69" t="n">
         <v>1</v>
       </c>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="n">
         <v>0</v>
       </c>
@@ -9344,16 +8231,11 @@
       <c r="AL69" t="n">
         <v>0</v>
       </c>
-      <c r="AM69" t="inlineStr"/>
       <c r="AN69" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO69" t="inlineStr"/>
-      <c r="AP69" t="inlineStr"/>
-      <c r="AQ69" t="inlineStr"/>
-      <c r="AR69" t="inlineStr"/>
       <c r="AS69" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -9414,7 +8296,6 @@
       <c r="L70" t="n">
         <v>1</v>
       </c>
-      <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9423,17 +8304,6 @@
       <c r="O70" t="n">
         <v>1</v>
       </c>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="n">
         <v>0</v>
       </c>
@@ -9470,16 +8340,11 @@
       <c r="AL70" t="n">
         <v>0</v>
       </c>
-      <c r="AM70" t="inlineStr"/>
       <c r="AN70" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO70" t="inlineStr"/>
-      <c r="AP70" t="inlineStr"/>
-      <c r="AQ70" t="inlineStr"/>
-      <c r="AR70" t="inlineStr"/>
       <c r="AS70" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -9540,7 +8405,6 @@
       <c r="L71" t="n">
         <v>1</v>
       </c>
-      <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9549,17 +8413,6 @@
       <c r="O71" t="n">
         <v>1</v>
       </c>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="n">
         <v>0</v>
       </c>
@@ -9596,16 +8449,11 @@
       <c r="AL71" t="n">
         <v>0</v>
       </c>
-      <c r="AM71" t="inlineStr"/>
       <c r="AN71" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO71" t="inlineStr"/>
-      <c r="AP71" t="inlineStr"/>
-      <c r="AQ71" t="inlineStr"/>
-      <c r="AR71" t="inlineStr"/>
       <c r="AS71" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -9666,7 +8514,6 @@
       <c r="L72" t="n">
         <v>1</v>
       </c>
-      <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9675,17 +8522,6 @@
       <c r="O72" t="n">
         <v>1</v>
       </c>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="n">
         <v>0</v>
       </c>
@@ -9722,16 +8558,11 @@
       <c r="AL72" t="n">
         <v>0</v>
       </c>
-      <c r="AM72" t="inlineStr"/>
       <c r="AN72" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO72" t="inlineStr"/>
-      <c r="AP72" t="inlineStr"/>
-      <c r="AQ72" t="inlineStr"/>
-      <c r="AR72" t="inlineStr"/>
       <c r="AS72" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -9792,7 +8623,6 @@
       <c r="L73" t="n">
         <v>1</v>
       </c>
-      <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9801,17 +8631,6 @@
       <c r="O73" t="n">
         <v>1</v>
       </c>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
       <c r="AA73" t="n">
         <v>0</v>
       </c>
@@ -9848,16 +8667,11 @@
       <c r="AL73" t="n">
         <v>0</v>
       </c>
-      <c r="AM73" t="inlineStr"/>
       <c r="AN73" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO73" t="inlineStr"/>
-      <c r="AP73" t="inlineStr"/>
-      <c r="AQ73" t="inlineStr"/>
-      <c r="AR73" t="inlineStr"/>
       <c r="AS73" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -9918,7 +8732,6 @@
       <c r="L74" t="n">
         <v>1</v>
       </c>
-      <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9927,17 +8740,6 @@
       <c r="O74" t="n">
         <v>1</v>
       </c>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-      <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="n">
         <v>0</v>
       </c>
@@ -9974,16 +8776,11 @@
       <c r="AL74" t="n">
         <v>0</v>
       </c>
-      <c r="AM74" t="inlineStr"/>
       <c r="AN74" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO74" t="inlineStr"/>
-      <c r="AP74" t="inlineStr"/>
-      <c r="AQ74" t="inlineStr"/>
-      <c r="AR74" t="inlineStr"/>
       <c r="AS74" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -10044,7 +8841,6 @@
       <c r="L75" t="n">
         <v>1</v>
       </c>
-      <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10053,25 +8849,18 @@
       <c r="O75" t="n">
         <v>1</v>
       </c>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" s="2" t="n">
+      <c r="Q75" s="3" t="n">
         <v>45180</v>
       </c>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" s="2" t="n">
+      <c r="T75" s="3" t="n">
         <v>45056</v>
       </c>
-      <c r="U75" s="2" t="n">
+      <c r="U75" s="3" t="n">
         <v>45065</v>
       </c>
-      <c r="V75" s="2" t="n">
+      <c r="V75" s="3" t="n">
         <v>45085</v>
       </c>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
-      <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="n">
         <v>0</v>
       </c>
@@ -10108,16 +8897,11 @@
       <c r="AL75" t="n">
         <v>0</v>
       </c>
-      <c r="AM75" t="inlineStr"/>
       <c r="AN75" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO75" t="inlineStr"/>
-      <c r="AP75" t="inlineStr"/>
-      <c r="AQ75" t="inlineStr"/>
-      <c r="AR75" t="inlineStr"/>
       <c r="AS75" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -10178,7 +8962,6 @@
       <c r="L76" t="n">
         <v>1</v>
       </c>
-      <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10187,17 +8970,6 @@
       <c r="O76" t="n">
         <v>1</v>
       </c>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-      <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="n">
         <v>0</v>
       </c>
@@ -10234,16 +9006,11 @@
       <c r="AL76" t="n">
         <v>0</v>
       </c>
-      <c r="AM76" t="inlineStr"/>
       <c r="AN76" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO76" t="inlineStr"/>
-      <c r="AP76" t="inlineStr"/>
-      <c r="AQ76" t="inlineStr"/>
-      <c r="AR76" t="inlineStr"/>
       <c r="AS76" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -10304,7 +9071,6 @@
       <c r="L77" t="n">
         <v>1</v>
       </c>
-      <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10313,7 +9079,7 @@
       <c r="O77" t="n">
         <v>1</v>
       </c>
-      <c r="P77" s="2" t="n">
+      <c r="P77" s="3" t="n">
         <v>45208</v>
       </c>
       <c r="Q77" t="inlineStr">
@@ -10321,21 +9087,15 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" s="2" t="n">
+      <c r="T77" s="3" t="n">
         <v>45056</v>
       </c>
-      <c r="U77" s="2" t="n">
+      <c r="U77" s="3" t="n">
         <v>45065</v>
       </c>
-      <c r="V77" s="2" t="n">
+      <c r="V77" s="3" t="n">
         <v>45076</v>
       </c>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="n">
         <v>0</v>
       </c>
@@ -10372,16 +9132,11 @@
       <c r="AL77" t="n">
         <v>0</v>
       </c>
-      <c r="AM77" t="inlineStr"/>
       <c r="AN77" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO77" t="inlineStr"/>
-      <c r="AP77" t="inlineStr"/>
-      <c r="AQ77" t="inlineStr"/>
-      <c r="AR77" t="inlineStr"/>
       <c r="AS77" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -10442,7 +9197,6 @@
       <c r="L78" t="n">
         <v>1</v>
       </c>
-      <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10451,17 +9205,6 @@
       <c r="O78" t="n">
         <v>1</v>
       </c>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="n">
         <v>0</v>
       </c>
@@ -10498,16 +9241,11 @@
       <c r="AL78" t="n">
         <v>0</v>
       </c>
-      <c r="AM78" t="inlineStr"/>
       <c r="AN78" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO78" t="inlineStr"/>
-      <c r="AP78" t="inlineStr"/>
-      <c r="AQ78" t="inlineStr"/>
-      <c r="AR78" t="inlineStr"/>
       <c r="AS78" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -10568,7 +9306,6 @@
       <c r="L79" t="n">
         <v>1</v>
       </c>
-      <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10577,17 +9314,6 @@
       <c r="O79" t="n">
         <v>1</v>
       </c>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="n">
         <v>0</v>
       </c>
@@ -10624,16 +9350,11 @@
       <c r="AL79" t="n">
         <v>0</v>
       </c>
-      <c r="AM79" t="inlineStr"/>
       <c r="AN79" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO79" t="inlineStr"/>
-      <c r="AP79" t="inlineStr"/>
-      <c r="AQ79" t="inlineStr"/>
-      <c r="AR79" t="inlineStr"/>
       <c r="AS79" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -10694,7 +9415,6 @@
       <c r="L80" t="n">
         <v>1</v>
       </c>
-      <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10703,17 +9423,6 @@
       <c r="O80" t="n">
         <v>1</v>
       </c>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="n">
         <v>0</v>
       </c>
@@ -10750,16 +9459,11 @@
       <c r="AL80" t="n">
         <v>0</v>
       </c>
-      <c r="AM80" t="inlineStr"/>
       <c r="AN80" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO80" t="inlineStr"/>
-      <c r="AP80" t="inlineStr"/>
-      <c r="AQ80" t="inlineStr"/>
-      <c r="AR80" t="inlineStr"/>
       <c r="AS80" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -10820,7 +9524,6 @@
       <c r="L81" t="n">
         <v>1</v>
       </c>
-      <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10829,17 +9532,6 @@
       <c r="O81" t="n">
         <v>1</v>
       </c>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="n">
         <v>0</v>
       </c>
@@ -10876,16 +9568,11 @@
       <c r="AL81" t="n">
         <v>0</v>
       </c>
-      <c r="AM81" t="inlineStr"/>
       <c r="AN81" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO81" t="inlineStr"/>
-      <c r="AP81" t="inlineStr"/>
-      <c r="AQ81" t="inlineStr"/>
-      <c r="AR81" t="inlineStr"/>
       <c r="AS81" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -10946,7 +9633,6 @@
       <c r="L82" t="n">
         <v>1</v>
       </c>
-      <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
           <t>completed</t>
@@ -10955,17 +9641,6 @@
       <c r="O82" t="n">
         <v>1</v>
       </c>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
-      <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="n">
         <v>0</v>
       </c>
@@ -11002,16 +9677,11 @@
       <c r="AL82" t="n">
         <v>0</v>
       </c>
-      <c r="AM82" t="inlineStr"/>
       <c r="AN82" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO82" t="inlineStr"/>
-      <c r="AP82" t="inlineStr"/>
-      <c r="AQ82" t="inlineStr"/>
-      <c r="AR82" t="inlineStr"/>
       <c r="AS82" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -11072,7 +9742,6 @@
       <c r="L83" t="n">
         <v>1</v>
       </c>
-      <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
           <t>completed</t>
@@ -11081,20 +9750,11 @@
       <c r="O83" t="n">
         <v>1</v>
       </c>
-      <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
           <t>with RTA</t>
@@ -11136,16 +9796,11 @@
       <c r="AL83" t="n">
         <v>0</v>
       </c>
-      <c r="AM83" t="inlineStr"/>
       <c r="AN83" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AO83" t="inlineStr"/>
-      <c r="AP83" t="inlineStr"/>
-      <c r="AQ83" t="inlineStr"/>
-      <c r="AR83" t="inlineStr"/>
       <c r="AS83" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -11219,10 +9874,9 @@
       <c r="O84" t="n">
         <v>1</v>
       </c>
-      <c r="P84" s="2" t="n">
+      <c r="P84" s="3" t="n">
         <v>45474</v>
       </c>
-      <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr">
         <is>
           <t>QRF 2023-BATANGAS-IVA-01</t>
@@ -11233,19 +9887,19 @@
           <t>QRF 2023-BATANGAS-IVA-01</t>
         </is>
       </c>
-      <c r="T84" s="2" t="n">
+      <c r="T84" s="3" t="n">
         <v>45145</v>
       </c>
-      <c r="U84" s="2" t="n">
+      <c r="U84" s="3" t="n">
         <v>45153</v>
       </c>
-      <c r="V84" s="2" t="n">
+      <c r="V84" s="3" t="n">
         <v>45161</v>
       </c>
-      <c r="W84" s="2" t="n">
+      <c r="W84" s="3" t="n">
         <v>45198</v>
       </c>
-      <c r="X84" s="2" t="n">
+      <c r="X84" s="3" t="n">
         <v>45226</v>
       </c>
       <c r="Y84" t="inlineStr">
@@ -11294,14 +9948,9 @@
       <c r="AL84" t="n">
         <v>0</v>
       </c>
-      <c r="AM84" t="inlineStr"/>
       <c r="AN84" t="n">
         <v>3.25</v>
       </c>
-      <c r="AO84" t="inlineStr"/>
-      <c r="AP84" t="inlineStr"/>
-      <c r="AQ84" t="inlineStr"/>
-      <c r="AR84" t="inlineStr"/>
       <c r="AS84" t="inlineStr">
         <is>
           <t>REPLACEMENT</t>
@@ -11375,7 +10024,7 @@
       <c r="O85" t="n">
         <v>1</v>
       </c>
-      <c r="P85" s="2" t="n">
+      <c r="P85" s="3" t="n">
         <v>45118</v>
       </c>
       <c r="Q85" t="inlineStr">
@@ -11388,20 +10037,19 @@
           <t>QRF 2023-QUEZON-IVA-01</t>
         </is>
       </c>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" s="2" t="n">
+      <c r="T85" s="3" t="n">
         <v>44960</v>
       </c>
-      <c r="U85" s="2" t="n">
+      <c r="U85" s="3" t="n">
         <v>44967</v>
       </c>
-      <c r="V85" s="2" t="n">
+      <c r="V85" s="3" t="n">
         <v>44979</v>
       </c>
-      <c r="W85" s="2" t="n">
+      <c r="W85" s="3" t="n">
         <v>44991</v>
       </c>
-      <c r="X85" s="2" t="n">
+      <c r="X85" s="3" t="n">
         <v>44999</v>
       </c>
       <c r="Y85" t="inlineStr">
@@ -11409,7 +10057,6 @@
           <t>L.A. Profugo Construction and Supply</t>
         </is>
       </c>
-      <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="n">
         <v>0</v>
       </c>
@@ -11446,14 +10093,9 @@
       <c r="AL85" t="n">
         <v>0</v>
       </c>
-      <c r="AM85" t="inlineStr"/>
       <c r="AN85" t="n">
         <v>9.23</v>
       </c>
-      <c r="AO85" t="inlineStr"/>
-      <c r="AP85" t="inlineStr"/>
-      <c r="AQ85" t="inlineStr"/>
-      <c r="AR85" t="inlineStr"/>
       <c r="AS85" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -11527,7 +10169,7 @@
       <c r="O86" t="n">
         <v>1</v>
       </c>
-      <c r="P86" s="2" t="n">
+      <c r="P86" s="3" t="n">
         <v>45118</v>
       </c>
       <c r="Q86" t="inlineStr">
@@ -11540,20 +10182,19 @@
           <t>QRF 2023-QUEZON-IVA-02</t>
         </is>
       </c>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" s="2" t="n">
+      <c r="T86" s="3" t="n">
         <v>44960</v>
       </c>
-      <c r="U86" s="2" t="n">
+      <c r="U86" s="3" t="n">
         <v>44967</v>
       </c>
-      <c r="V86" s="2" t="n">
+      <c r="V86" s="3" t="n">
         <v>44979</v>
       </c>
-      <c r="W86" s="2" t="n">
+      <c r="W86" s="3" t="n">
         <v>44991</v>
       </c>
-      <c r="X86" s="2" t="n">
+      <c r="X86" s="3" t="n">
         <v>44999</v>
       </c>
       <c r="Y86" t="inlineStr">
@@ -11561,7 +10202,6 @@
           <t>C.G. Cabana Construction and Supply</t>
         </is>
       </c>
-      <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="n">
         <v>0</v>
       </c>
@@ -11598,14 +10238,9 @@
       <c r="AL86" t="n">
         <v>0</v>
       </c>
-      <c r="AM86" t="inlineStr"/>
       <c r="AN86" t="n">
         <v>9.23</v>
       </c>
-      <c r="AO86" t="inlineStr"/>
-      <c r="AP86" t="inlineStr"/>
-      <c r="AQ86" t="inlineStr"/>
-      <c r="AR86" t="inlineStr"/>
       <c r="AS86" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -11679,7 +10314,7 @@
       <c r="O87" t="n">
         <v>1</v>
       </c>
-      <c r="P87" s="2" t="n">
+      <c r="P87" s="3" t="n">
         <v>45124</v>
       </c>
       <c r="Q87" t="inlineStr">
@@ -11692,26 +10327,23 @@
           <t>QRF 2023-QUEZON-IVA-03</t>
         </is>
       </c>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" s="2" t="n">
+      <c r="T87" s="3" t="n">
         <v>44960</v>
       </c>
-      <c r="U87" s="2" t="n">
+      <c r="U87" s="3" t="n">
         <v>44967</v>
       </c>
-      <c r="V87" s="2" t="n">
+      <c r="V87" s="3" t="n">
         <v>44979</v>
       </c>
-      <c r="W87" s="2" t="n">
+      <c r="W87" s="3" t="n">
         <v>44998</v>
       </c>
-      <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr">
         <is>
           <t>M.G. Villamin Construction</t>
         </is>
       </c>
-      <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="n">
         <v>0</v>
       </c>
@@ -11748,14 +10380,9 @@
       <c r="AL87" t="n">
         <v>0</v>
       </c>
-      <c r="AM87" t="inlineStr"/>
       <c r="AN87" t="n">
         <v>9.23</v>
       </c>
-      <c r="AO87" t="inlineStr"/>
-      <c r="AP87" t="inlineStr"/>
-      <c r="AQ87" t="inlineStr"/>
-      <c r="AR87" t="inlineStr"/>
       <c r="AS87" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -11829,7 +10456,7 @@
       <c r="O88" t="n">
         <v>1</v>
       </c>
-      <c r="P88" s="2" t="n">
+      <c r="P88" s="3" t="n">
         <v>45118</v>
       </c>
       <c r="Q88" t="inlineStr">
@@ -11842,20 +10469,19 @@
           <t>QRF 2023-QUEZON-IVA-04</t>
         </is>
       </c>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" s="2" t="n">
+      <c r="T88" s="3" t="n">
         <v>44960</v>
       </c>
-      <c r="U88" s="2" t="n">
+      <c r="U88" s="3" t="n">
         <v>44967</v>
       </c>
-      <c r="V88" s="2" t="n">
+      <c r="V88" s="3" t="n">
         <v>44979</v>
       </c>
-      <c r="W88" s="2" t="n">
+      <c r="W88" s="3" t="n">
         <v>44991</v>
       </c>
-      <c r="X88" s="2" t="n">
+      <c r="X88" s="3" t="n">
         <v>44999</v>
       </c>
       <c r="Y88" t="inlineStr">
@@ -11863,7 +10489,6 @@
           <t>C.G. Cabana Construction and Supply</t>
         </is>
       </c>
-      <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="n">
         <v>0</v>
       </c>
@@ -11900,14 +10525,9 @@
       <c r="AL88" t="n">
         <v>0</v>
       </c>
-      <c r="AM88" t="inlineStr"/>
       <c r="AN88" t="n">
         <v>9.23</v>
       </c>
-      <c r="AO88" t="inlineStr"/>
-      <c r="AP88" t="inlineStr"/>
-      <c r="AQ88" t="inlineStr"/>
-      <c r="AR88" t="inlineStr"/>
       <c r="AS88" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -11981,7 +10601,7 @@
       <c r="O89" t="n">
         <v>1</v>
       </c>
-      <c r="P89" s="2" t="n">
+      <c r="P89" s="3" t="n">
         <v>45154</v>
       </c>
       <c r="Q89" t="inlineStr">
@@ -11994,20 +10614,19 @@
           <t>QRF 2023-QUEZON-IVA-05</t>
         </is>
       </c>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" s="2" t="n">
+      <c r="T89" s="3" t="n">
         <v>44960</v>
       </c>
-      <c r="U89" s="2" t="n">
+      <c r="U89" s="3" t="n">
         <v>44967</v>
       </c>
-      <c r="V89" s="2" t="n">
+      <c r="V89" s="3" t="n">
         <v>44979</v>
       </c>
-      <c r="W89" s="2" t="n">
+      <c r="W89" s="3" t="n">
         <v>44998</v>
       </c>
-      <c r="X89" s="2" t="n">
+      <c r="X89" s="3" t="n">
         <v>45005</v>
       </c>
       <c r="Y89" t="inlineStr">
@@ -12015,7 +10634,6 @@
           <t>Botey Construction</t>
         </is>
       </c>
-      <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="n">
         <v>0</v>
       </c>
@@ -12052,14 +10670,9 @@
       <c r="AL89" t="n">
         <v>0</v>
       </c>
-      <c r="AM89" t="inlineStr"/>
       <c r="AN89" t="n">
         <v>9.23</v>
       </c>
-      <c r="AO89" t="inlineStr"/>
-      <c r="AP89" t="inlineStr"/>
-      <c r="AQ89" t="inlineStr"/>
-      <c r="AR89" t="inlineStr"/>
       <c r="AS89" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -12124,7 +10737,6 @@
           <t>2-R</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
           <t>completed</t>
@@ -12133,10 +10745,10 @@
       <c r="O90" t="n">
         <v>1</v>
       </c>
-      <c r="P90" s="2" t="n">
+      <c r="P90" s="3" t="n">
         <v>45565</v>
       </c>
-      <c r="Q90" s="2" t="n">
+      <c r="Q90" s="3" t="n">
         <v>45545</v>
       </c>
       <c r="R90" t="inlineStr">
@@ -12155,16 +10767,16 @@
 March 20, 2024</t>
         </is>
       </c>
-      <c r="U90" s="2" t="n">
+      <c r="U90" s="3" t="n">
         <v>45372</v>
       </c>
-      <c r="V90" s="2" t="n">
+      <c r="V90" s="3" t="n">
         <v>45385</v>
       </c>
-      <c r="W90" s="2" t="n">
+      <c r="W90" s="3" t="n">
         <v>45415</v>
       </c>
-      <c r="X90" s="2" t="n">
+      <c r="X90" s="3" t="n">
         <v>45446</v>
       </c>
       <c r="Y90" t="inlineStr">
@@ -12214,14 +10826,9 @@
       <c r="AL90" t="n">
         <v>0</v>
       </c>
-      <c r="AM90" t="inlineStr"/>
       <c r="AN90" t="n">
         <v>11.24</v>
       </c>
-      <c r="AO90" t="inlineStr"/>
-      <c r="AP90" t="inlineStr"/>
-      <c r="AQ90" t="inlineStr"/>
-      <c r="AR90" t="inlineStr"/>
       <c r="AS90" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -12282,7 +10889,6 @@
       <c r="L91" t="n">
         <v>1</v>
       </c>
-      <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12291,25 +10897,18 @@
       <c r="O91" t="n">
         <v>1</v>
       </c>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" s="2" t="n">
+      <c r="Q91" s="3" t="n">
         <v>45180</v>
       </c>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" s="2" t="n">
+      <c r="T91" s="3" t="n">
         <v>45056</v>
       </c>
-      <c r="U91" s="2" t="n">
+      <c r="U91" s="3" t="n">
         <v>45065</v>
       </c>
-      <c r="V91" s="2" t="n">
+      <c r="V91" s="3" t="n">
         <v>45085</v>
       </c>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
-      <c r="Z91" t="inlineStr"/>
       <c r="AA91" t="n">
         <v>0</v>
       </c>
@@ -12346,7 +10945,6 @@
       <c r="AL91" t="n">
         <v>0</v>
       </c>
-      <c r="AM91" t="inlineStr"/>
       <c r="AN91" t="n">
         <v>9.23</v>
       </c>
@@ -12355,9 +10953,6 @@
           <t>TY PAENG</t>
         </is>
       </c>
-      <c r="AP91" t="inlineStr"/>
-      <c r="AQ91" t="inlineStr"/>
-      <c r="AR91" t="inlineStr"/>
       <c r="AS91" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -12418,7 +11013,6 @@
       <c r="L92" t="n">
         <v>1</v>
       </c>
-      <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12427,27 +11021,21 @@
       <c r="O92" t="n">
         <v>1</v>
       </c>
-      <c r="P92" s="2" t="n">
+      <c r="P92" s="3" t="n">
         <v>45227</v>
       </c>
-      <c r="Q92" s="2" t="n">
+      <c r="Q92" s="3" t="n">
         <v>45168</v>
       </c>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" s="2" t="n">
+      <c r="T92" s="3" t="n">
         <v>45056</v>
       </c>
-      <c r="U92" s="2" t="n">
+      <c r="U92" s="3" t="n">
         <v>45065</v>
       </c>
-      <c r="V92" s="2" t="n">
+      <c r="V92" s="3" t="n">
         <v>45076</v>
       </c>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
-      <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="n">
         <v>0</v>
       </c>
@@ -12484,7 +11072,6 @@
       <c r="AL92" t="n">
         <v>0</v>
       </c>
-      <c r="AM92" t="inlineStr"/>
       <c r="AN92" t="n">
         <v>9.23</v>
       </c>
@@ -12493,9 +11080,6 @@
           <t>TY PAENG</t>
         </is>
       </c>
-      <c r="AP92" t="inlineStr"/>
-      <c r="AQ92" t="inlineStr"/>
-      <c r="AR92" t="inlineStr"/>
       <c r="AS92" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -12556,7 +11140,6 @@
       <c r="L93" t="n">
         <v>1</v>
       </c>
-      <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12565,27 +11148,21 @@
       <c r="O93" t="n">
         <v>1</v>
       </c>
-      <c r="P93" s="2" t="n">
+      <c r="P93" s="3" t="n">
         <v>45227</v>
       </c>
-      <c r="Q93" s="2" t="n">
+      <c r="Q93" s="3" t="n">
         <v>45183</v>
       </c>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" s="2" t="n">
+      <c r="T93" s="3" t="n">
         <v>45056</v>
       </c>
-      <c r="U93" s="2" t="n">
+      <c r="U93" s="3" t="n">
         <v>45065</v>
       </c>
-      <c r="V93" s="2" t="n">
+      <c r="V93" s="3" t="n">
         <v>45076</v>
       </c>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
-      <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="n">
         <v>0</v>
       </c>
@@ -12622,7 +11199,6 @@
       <c r="AL93" t="n">
         <v>0</v>
       </c>
-      <c r="AM93" t="inlineStr"/>
       <c r="AN93" t="n">
         <v>9.23</v>
       </c>
@@ -12631,9 +11207,6 @@
           <t>TY PAENG</t>
         </is>
       </c>
-      <c r="AP93" t="inlineStr"/>
-      <c r="AQ93" t="inlineStr"/>
-      <c r="AR93" t="inlineStr"/>
       <c r="AS93" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -12694,7 +11267,6 @@
       <c r="L94" t="n">
         <v>1</v>
       </c>
-      <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12703,7 +11275,7 @@
       <c r="O94" t="n">
         <v>1</v>
       </c>
-      <c r="P94" s="2" t="n">
+      <c r="P94" s="3" t="n">
         <v>45227</v>
       </c>
       <c r="Q94" t="inlineStr">
@@ -12711,21 +11283,15 @@
           <t>October 19,2023</t>
         </is>
       </c>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" s="2" t="n">
+      <c r="T94" s="3" t="n">
         <v>45056</v>
       </c>
-      <c r="U94" s="2" t="n">
+      <c r="U94" s="3" t="n">
         <v>45065</v>
       </c>
-      <c r="V94" s="2" t="n">
+      <c r="V94" s="3" t="n">
         <v>45076</v>
       </c>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
-      <c r="Z94" t="inlineStr"/>
       <c r="AA94" t="n">
         <v>0</v>
       </c>
@@ -12762,7 +11328,6 @@
       <c r="AL94" t="n">
         <v>0</v>
       </c>
-      <c r="AM94" t="inlineStr"/>
       <c r="AN94" t="n">
         <v>9.23</v>
       </c>
@@ -12771,9 +11336,6 @@
           <t>TY PAENG</t>
         </is>
       </c>
-      <c r="AP94" t="inlineStr"/>
-      <c r="AQ94" t="inlineStr"/>
-      <c r="AR94" t="inlineStr"/>
       <c r="AS94" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -12834,7 +11396,6 @@
       <c r="L95" t="n">
         <v>1</v>
       </c>
-      <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12843,7 +11404,7 @@
       <c r="O95" t="n">
         <v>1</v>
       </c>
-      <c r="P95" s="2" t="n">
+      <c r="P95" s="3" t="n">
         <v>45208</v>
       </c>
       <c r="Q95" t="inlineStr">
@@ -12851,21 +11412,15 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" s="2" t="n">
+      <c r="T95" s="3" t="n">
         <v>45056</v>
       </c>
-      <c r="U95" s="2" t="n">
+      <c r="U95" s="3" t="n">
         <v>45065</v>
       </c>
-      <c r="V95" s="2" t="n">
+      <c r="V95" s="3" t="n">
         <v>45076</v>
       </c>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
-      <c r="Z95" t="inlineStr"/>
       <c r="AA95" t="n">
         <v>0</v>
       </c>
@@ -12902,7 +11457,6 @@
       <c r="AL95" t="n">
         <v>0</v>
       </c>
-      <c r="AM95" t="inlineStr"/>
       <c r="AN95" t="n">
         <v>11.23</v>
       </c>
@@ -12911,9 +11465,6 @@
           <t>TY PAENG</t>
         </is>
       </c>
-      <c r="AP95" t="inlineStr"/>
-      <c r="AQ95" t="inlineStr"/>
-      <c r="AR95" t="inlineStr"/>
       <c r="AS95" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -12974,7 +11525,6 @@
       <c r="L96" t="n">
         <v>1</v>
       </c>
-      <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -12983,7 +11533,7 @@
       <c r="O96" t="n">
         <v>1</v>
       </c>
-      <c r="P96" s="2" t="n">
+      <c r="P96" s="3" t="n">
         <v>45208</v>
       </c>
       <c r="Q96" t="inlineStr">
@@ -12991,21 +11541,15 @@
           <t>October 19,2023</t>
         </is>
       </c>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" s="2" t="n">
+      <c r="T96" s="3" t="n">
         <v>45056</v>
       </c>
-      <c r="U96" s="2" t="n">
+      <c r="U96" s="3" t="n">
         <v>45065</v>
       </c>
-      <c r="V96" s="2" t="n">
+      <c r="V96" s="3" t="n">
         <v>45076</v>
       </c>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
-      <c r="Z96" t="inlineStr"/>
       <c r="AA96" t="n">
         <v>0</v>
       </c>
@@ -13042,7 +11586,6 @@
       <c r="AL96" t="n">
         <v>0</v>
       </c>
-      <c r="AM96" t="inlineStr"/>
       <c r="AN96" t="n">
         <v>11.23</v>
       </c>
@@ -13051,9 +11594,6 @@
           <t>TY PAENG</t>
         </is>
       </c>
-      <c r="AP96" t="inlineStr"/>
-      <c r="AQ96" t="inlineStr"/>
-      <c r="AR96" t="inlineStr"/>
       <c r="AS96" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -13114,7 +11654,6 @@
       <c r="L97" t="n">
         <v>1</v>
       </c>
-      <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13123,7 +11662,7 @@
       <c r="O97" t="n">
         <v>1</v>
       </c>
-      <c r="P97" s="2" t="n">
+      <c r="P97" s="3" t="n">
         <v>45208</v>
       </c>
       <c r="Q97" t="inlineStr">
@@ -13131,21 +11670,15 @@
           <t>October 19,2023</t>
         </is>
       </c>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" s="2" t="n">
+      <c r="T97" s="3" t="n">
         <v>45056</v>
       </c>
-      <c r="U97" s="2" t="n">
+      <c r="U97" s="3" t="n">
         <v>45065</v>
       </c>
-      <c r="V97" s="2" t="n">
+      <c r="V97" s="3" t="n">
         <v>45076</v>
       </c>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
-      <c r="Z97" t="inlineStr"/>
       <c r="AA97" t="n">
         <v>0</v>
       </c>
@@ -13182,7 +11715,6 @@
       <c r="AL97" t="n">
         <v>0</v>
       </c>
-      <c r="AM97" t="inlineStr"/>
       <c r="AN97" t="n">
         <v>11.23</v>
       </c>
@@ -13191,9 +11723,6 @@
           <t>TY PAENG</t>
         </is>
       </c>
-      <c r="AP97" t="inlineStr"/>
-      <c r="AQ97" t="inlineStr"/>
-      <c r="AR97" t="inlineStr"/>
       <c r="AS97" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -13254,7 +11783,6 @@
       <c r="L98" t="n">
         <v>1</v>
       </c>
-      <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13263,7 +11791,7 @@
       <c r="O98" t="n">
         <v>1</v>
       </c>
-      <c r="P98" s="2" t="n">
+      <c r="P98" s="3" t="n">
         <v>45227</v>
       </c>
       <c r="Q98" t="inlineStr">
@@ -13271,21 +11799,15 @@
           <t>October 19,2023</t>
         </is>
       </c>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
-      <c r="T98" s="2" t="n">
+      <c r="T98" s="3" t="n">
         <v>45056</v>
       </c>
-      <c r="U98" s="2" t="n">
+      <c r="U98" s="3" t="n">
         <v>45065</v>
       </c>
-      <c r="V98" s="2" t="n">
+      <c r="V98" s="3" t="n">
         <v>45076</v>
       </c>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
-      <c r="Z98" t="inlineStr"/>
       <c r="AA98" t="n">
         <v>0</v>
       </c>
@@ -13322,7 +11844,6 @@
       <c r="AL98" t="n">
         <v>0</v>
       </c>
-      <c r="AM98" t="inlineStr"/>
       <c r="AN98" t="n">
         <v>9.23</v>
       </c>
@@ -13331,9 +11852,6 @@
           <t>TY PAENG</t>
         </is>
       </c>
-      <c r="AP98" t="inlineStr"/>
-      <c r="AQ98" t="inlineStr"/>
-      <c r="AR98" t="inlineStr"/>
       <c r="AS98" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -13394,7 +11912,6 @@
       <c r="L99" t="n">
         <v>1</v>
       </c>
-      <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13403,27 +11920,21 @@
       <c r="O99" t="n">
         <v>1</v>
       </c>
-      <c r="P99" s="2" t="n">
+      <c r="P99" s="3" t="n">
         <v>45227</v>
       </c>
-      <c r="Q99" s="2" t="n">
+      <c r="Q99" s="3" t="n">
         <v>45158</v>
       </c>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" s="2" t="n">
+      <c r="T99" s="3" t="n">
         <v>45056</v>
       </c>
-      <c r="U99" s="2" t="n">
+      <c r="U99" s="3" t="n">
         <v>45065</v>
       </c>
-      <c r="V99" s="2" t="n">
+      <c r="V99" s="3" t="n">
         <v>45076</v>
       </c>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
-      <c r="Z99" t="inlineStr"/>
       <c r="AA99" t="n">
         <v>0</v>
       </c>
@@ -13460,7 +11971,6 @@
       <c r="AL99" t="n">
         <v>0</v>
       </c>
-      <c r="AM99" t="inlineStr"/>
       <c r="AN99" t="n">
         <v>9.23</v>
       </c>
@@ -13469,9 +11979,6 @@
           <t>TY PAENG</t>
         </is>
       </c>
-      <c r="AP99" t="inlineStr"/>
-      <c r="AQ99" t="inlineStr"/>
-      <c r="AR99" t="inlineStr"/>
       <c r="AS99" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -13532,7 +12039,6 @@
       <c r="L100" t="n">
         <v>1</v>
       </c>
-      <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13541,7 +12047,7 @@
       <c r="O100" t="n">
         <v>1</v>
       </c>
-      <c r="P100" s="2" t="n">
+      <c r="P100" s="3" t="n">
         <v>45208</v>
       </c>
       <c r="Q100" t="inlineStr">
@@ -13549,21 +12055,15 @@
           <t>October 19,2023</t>
         </is>
       </c>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" s="2" t="n">
+      <c r="T100" s="3" t="n">
         <v>45056</v>
       </c>
-      <c r="U100" s="2" t="n">
+      <c r="U100" s="3" t="n">
         <v>45065</v>
       </c>
-      <c r="V100" s="2" t="n">
+      <c r="V100" s="3" t="n">
         <v>45076</v>
       </c>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
-      <c r="Z100" t="inlineStr"/>
       <c r="AA100" t="n">
         <v>0</v>
       </c>
@@ -13600,7 +12100,6 @@
       <c r="AL100" t="n">
         <v>0</v>
       </c>
-      <c r="AM100" t="inlineStr"/>
       <c r="AN100" t="n">
         <v>11.23</v>
       </c>
@@ -13609,9 +12108,6 @@
           <t>TY PAENG</t>
         </is>
       </c>
-      <c r="AP100" t="inlineStr"/>
-      <c r="AQ100" t="inlineStr"/>
-      <c r="AR100" t="inlineStr"/>
       <c r="AS100" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -13672,7 +12168,6 @@
       <c r="L101" t="n">
         <v>1</v>
       </c>
-      <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13681,27 +12176,21 @@
       <c r="O101" t="n">
         <v>1</v>
       </c>
-      <c r="P101" s="2" t="n">
+      <c r="P101" s="3" t="n">
         <v>45227</v>
       </c>
-      <c r="Q101" s="2" t="n">
+      <c r="Q101" s="3" t="n">
         <v>45187</v>
       </c>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="inlineStr"/>
-      <c r="T101" s="2" t="n">
+      <c r="T101" s="3" t="n">
         <v>45056</v>
       </c>
-      <c r="U101" s="2" t="n">
+      <c r="U101" s="3" t="n">
         <v>45065</v>
       </c>
-      <c r="V101" s="2" t="n">
+      <c r="V101" s="3" t="n">
         <v>45076</v>
       </c>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
-      <c r="Z101" t="inlineStr"/>
       <c r="AA101" t="n">
         <v>0</v>
       </c>
@@ -13738,7 +12227,6 @@
       <c r="AL101" t="n">
         <v>0</v>
       </c>
-      <c r="AM101" t="inlineStr"/>
       <c r="AN101" t="n">
         <v>9.23</v>
       </c>
@@ -13747,9 +12235,6 @@
           <t>TY PAENG</t>
         </is>
       </c>
-      <c r="AP101" t="inlineStr"/>
-      <c r="AQ101" t="inlineStr"/>
-      <c r="AR101" t="inlineStr"/>
       <c r="AS101" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -13810,7 +12295,6 @@
       <c r="L102" t="n">
         <v>1</v>
       </c>
-      <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13819,7 +12303,7 @@
       <c r="O102" t="n">
         <v>1</v>
       </c>
-      <c r="P102" s="2" t="n">
+      <c r="P102" s="3" t="n">
         <v>45208</v>
       </c>
       <c r="Q102" t="inlineStr">
@@ -13827,21 +12311,15 @@
           <t>October 19,2023</t>
         </is>
       </c>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="inlineStr"/>
-      <c r="T102" s="2" t="n">
+      <c r="T102" s="3" t="n">
         <v>45056</v>
       </c>
-      <c r="U102" s="2" t="n">
+      <c r="U102" s="3" t="n">
         <v>45065</v>
       </c>
-      <c r="V102" s="2" t="n">
+      <c r="V102" s="3" t="n">
         <v>45076</v>
       </c>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
-      <c r="Z102" t="inlineStr"/>
       <c r="AA102" t="n">
         <v>0</v>
       </c>
@@ -13878,7 +12356,6 @@
       <c r="AL102" t="n">
         <v>0</v>
       </c>
-      <c r="AM102" t="inlineStr"/>
       <c r="AN102" t="n">
         <v>11.23</v>
       </c>
@@ -13887,9 +12364,6 @@
           <t>TY PAENG</t>
         </is>
       </c>
-      <c r="AP102" t="inlineStr"/>
-      <c r="AQ102" t="inlineStr"/>
-      <c r="AR102" t="inlineStr"/>
       <c r="AS102" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -13950,7 +12424,6 @@
       <c r="L103" t="n">
         <v>1</v>
       </c>
-      <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -13959,7 +12432,7 @@
       <c r="O103" t="n">
         <v>1</v>
       </c>
-      <c r="P103" s="2" t="n">
+      <c r="P103" s="3" t="n">
         <v>45208</v>
       </c>
       <c r="Q103" t="inlineStr">
@@ -13967,21 +12440,15 @@
           <t>October 19,2023</t>
         </is>
       </c>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr"/>
-      <c r="T103" s="2" t="n">
+      <c r="T103" s="3" t="n">
         <v>45056</v>
       </c>
-      <c r="U103" s="2" t="n">
+      <c r="U103" s="3" t="n">
         <v>45065</v>
       </c>
-      <c r="V103" s="2" t="n">
+      <c r="V103" s="3" t="n">
         <v>45076</v>
       </c>
-      <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr"/>
-      <c r="Z103" t="inlineStr"/>
       <c r="AA103" t="n">
         <v>0</v>
       </c>
@@ -14018,7 +12485,6 @@
       <c r="AL103" t="n">
         <v>0</v>
       </c>
-      <c r="AM103" t="inlineStr"/>
       <c r="AN103" t="n">
         <v>11.23</v>
       </c>
@@ -14027,9 +12493,6 @@
           <t>TY PAENG</t>
         </is>
       </c>
-      <c r="AP103" t="inlineStr"/>
-      <c r="AQ103" t="inlineStr"/>
-      <c r="AR103" t="inlineStr"/>
       <c r="AS103" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -14090,7 +12553,6 @@
       <c r="L104" t="n">
         <v>1</v>
       </c>
-      <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -14099,27 +12561,21 @@
       <c r="O104" t="n">
         <v>1</v>
       </c>
-      <c r="P104" s="2" t="n">
+      <c r="P104" s="3" t="n">
         <v>45227</v>
       </c>
-      <c r="Q104" s="2" t="n">
+      <c r="Q104" s="3" t="n">
         <v>45189</v>
       </c>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="inlineStr"/>
-      <c r="T104" s="2" t="n">
+      <c r="T104" s="3" t="n">
         <v>45056</v>
       </c>
-      <c r="U104" s="2" t="n">
+      <c r="U104" s="3" t="n">
         <v>45065</v>
       </c>
-      <c r="V104" s="2" t="n">
+      <c r="V104" s="3" t="n">
         <v>45076</v>
       </c>
-      <c r="W104" t="inlineStr"/>
-      <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr"/>
-      <c r="Z104" t="inlineStr"/>
       <c r="AA104" t="n">
         <v>0</v>
       </c>
@@ -14156,7 +12612,6 @@
       <c r="AL104" t="n">
         <v>0</v>
       </c>
-      <c r="AM104" t="inlineStr"/>
       <c r="AN104" t="n">
         <v>9.23</v>
       </c>
@@ -14165,9 +12620,6 @@
           <t>TY PAENG</t>
         </is>
       </c>
-      <c r="AP104" t="inlineStr"/>
-      <c r="AQ104" t="inlineStr"/>
-      <c r="AR104" t="inlineStr"/>
       <c r="AS104" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -14232,7 +12684,6 @@
           <t>2-R</t>
         </is>
       </c>
-      <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -14241,17 +12692,6 @@
       <c r="O105" t="n">
         <v>1</v>
       </c>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="inlineStr"/>
-      <c r="T105" t="inlineStr"/>
-      <c r="U105" t="inlineStr"/>
-      <c r="V105" t="inlineStr"/>
-      <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
-      <c r="Z105" t="inlineStr"/>
       <c r="AA105" t="n">
         <v>0</v>
       </c>
@@ -14288,14 +12728,9 @@
       <c r="AL105" t="n">
         <v>0</v>
       </c>
-      <c r="AM105" t="inlineStr"/>
       <c r="AN105" t="n">
         <v>12.23</v>
       </c>
-      <c r="AO105" t="inlineStr"/>
-      <c r="AP105" t="inlineStr"/>
-      <c r="AQ105" t="inlineStr"/>
-      <c r="AR105" t="inlineStr"/>
       <c r="AS105" t="inlineStr">
         <is>
           <t>REPAIR</t>
@@ -14304,6 +12739,79 @@
       <c r="AT105" t="inlineStr">
         <is>
           <t>Completed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AU2:AU105" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/Region IV-A/Region IV-A_QRF.xlsx
+++ b/Filtered_By_Region/Region IV-A/Region IV-A_QRF.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
